--- a/ind_MAYO.xlsx
+++ b/ind_MAYO.xlsx
@@ -1011,6 +1011,12 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C10711102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23991103</t>
   </si>
   <si>
@@ -1044,6 +1050,12 @@
     <t xml:space="preserve">C25991107</t>
   </si>
   <si>
+    <t xml:space="preserve">C10201102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10201201</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10301402</t>
   </si>
   <si>
@@ -1077,31 +1089,19 @@
     <t xml:space="preserve">C23951103</t>
   </si>
   <si>
-    <t xml:space="preserve">C10711102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10711101</t>
+    <t xml:space="preserve">C13111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13111102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25121101</t>
   </si>
   <si>
     <t xml:space="preserve">C32501101</t>
   </si>
   <si>
-    <t xml:space="preserve">C10201102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10201201</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10612101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25121101</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>96.3868912419</v>
+        <v>96.1647372718074</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>102.777040387591</v>
+        <v>102.761449631338</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>115.132530972908</v>
+        <v>104.258761240454</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>101.76210143367</v>
+        <v>100.999560983541</v>
       </c>
     </row>
     <row r="31">
@@ -1681,7 +1681,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>100.328441993446</v>
+        <v>98.5110547207683</v>
       </c>
     </row>
     <row r="32">
@@ -1745,7 +1745,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>92.2323858698031</v>
+        <v>101.327559136865</v>
       </c>
     </row>
     <row r="40">
@@ -1769,7 +1769,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>97.714642363339</v>
+        <v>97.6441001059929</v>
       </c>
     </row>
     <row r="43">
@@ -1881,7 +1881,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>100.952083142846</v>
+        <v>100.950380965531</v>
       </c>
     </row>
     <row r="57">
@@ -1889,7 +1889,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>97.2819161529195</v>
+        <v>97.6292934974779</v>
       </c>
     </row>
     <row r="58">
@@ -1913,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>96.1696000445606</v>
+        <v>99.9439128156496</v>
       </c>
     </row>
     <row r="61">
@@ -1921,7 +1921,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>102.924581326753</v>
+        <v>103.494499189224</v>
       </c>
     </row>
     <row r="62">
@@ -1929,7 +1929,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>100.026284203699</v>
+        <v>107.082403546181</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="65">
@@ -1953,7 +1953,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>91.1790205496048</v>
+        <v>97.5867896418722</v>
       </c>
     </row>
     <row r="66">
@@ -1985,7 +1985,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>103.692566845504</v>
+        <v>104.721223861744</v>
       </c>
     </row>
     <row r="70">
@@ -2009,7 +2009,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>98.8258123016139</v>
+        <v>98.789871617561</v>
       </c>
     </row>
     <row r="73">
@@ -2025,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="75">
@@ -2073,7 +2073,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>100.991856805382</v>
+        <v>100.976634002472</v>
       </c>
     </row>
     <row r="81">
@@ -2177,7 +2177,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>100.00997971627</v>
+        <v>100.000434808082</v>
       </c>
     </row>
   </sheetData>
@@ -2269,13 +2269,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>67.1610537515839</v>
+        <v>67.0879234862548</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>102.465486122961</v>
+        <v>102.353913600365</v>
       </c>
     </row>
     <row r="7">
@@ -2283,13 +2283,13 @@
         <v>102</v>
       </c>
       <c r="B7" t="n">
-        <v>177.663040416108</v>
+        <v>177.65551545646</v>
       </c>
       <c r="C7" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D7" t="n">
-        <v>100.502231873761</v>
+        <v>100.497975078213</v>
       </c>
     </row>
     <row r="8">
@@ -2297,13 +2297,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>481.706638310896</v>
+        <v>446.89195055995</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>110.764822257116</v>
+        <v>102.759446383135</v>
       </c>
     </row>
     <row r="9">
@@ -2465,13 +2465,13 @@
         <v>115</v>
       </c>
       <c r="B20" t="n">
-        <v>362.740761213409</v>
+        <v>360.022612713733</v>
       </c>
       <c r="C20" t="n">
         <v>3.56459581811847</v>
       </c>
       <c r="D20" t="n">
-        <v>101.76210143367</v>
+        <v>100.999560983541</v>
       </c>
     </row>
     <row r="21">
@@ -2479,13 +2479,13 @@
         <v>116</v>
       </c>
       <c r="B21" t="n">
-        <v>288.28274208726</v>
+        <v>283.060679669145</v>
       </c>
       <c r="C21" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D21" t="n">
-        <v>100.328441993446</v>
+        <v>98.5110547207683</v>
       </c>
     </row>
     <row r="22">
@@ -2577,13 +2577,13 @@
         <v>123</v>
       </c>
       <c r="B28" t="n">
-        <v>79.6939354456945</v>
+        <v>87.5526733974136</v>
       </c>
       <c r="C28" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D28" t="n">
-        <v>92.2323858698031</v>
+        <v>101.327559136865</v>
       </c>
     </row>
     <row r="29">
@@ -2619,13 +2619,13 @@
         <v>126</v>
       </c>
       <c r="B31" t="n">
-        <v>363.539918932454</v>
+        <v>363.277471811975</v>
       </c>
       <c r="C31" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D31" t="n">
-        <v>97.714642363339</v>
+        <v>97.6441001059929</v>
       </c>
     </row>
     <row r="32">
@@ -2787,13 +2787,13 @@
         <v>138</v>
       </c>
       <c r="B43" t="n">
-        <v>159.978762163384</v>
+        <v>159.97606472306</v>
       </c>
       <c r="C43" t="n">
         <v>1.58469996044575</v>
       </c>
       <c r="D43" t="n">
-        <v>100.952083142846</v>
+        <v>100.950380965531</v>
       </c>
     </row>
     <row r="44">
@@ -2801,13 +2801,13 @@
         <v>139</v>
       </c>
       <c r="B44" t="n">
-        <v>236.733409177065</v>
+        <v>237.578744325675</v>
       </c>
       <c r="C44" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.2819161529195</v>
+        <v>97.6292934974779</v>
       </c>
     </row>
     <row r="45">
@@ -2843,13 +2843,13 @@
         <v>142</v>
       </c>
       <c r="B47" t="n">
-        <v>238.076283369256</v>
+        <v>247.419925813413</v>
       </c>
       <c r="C47" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D47" t="n">
-        <v>96.1696000445606</v>
+        <v>99.9439128156496</v>
       </c>
     </row>
     <row r="48">
@@ -2857,13 +2857,13 @@
         <v>143</v>
       </c>
       <c r="B48" t="n">
-        <v>147.805777537268</v>
+        <v>148.62421324727</v>
       </c>
       <c r="C48" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D48" t="n">
-        <v>102.924581326753</v>
+        <v>103.494499189224</v>
       </c>
     </row>
     <row r="49">
@@ -2871,13 +2871,13 @@
         <v>144</v>
       </c>
       <c r="B49" t="n">
-        <v>322.852748905829</v>
+        <v>345.627637970872</v>
       </c>
       <c r="C49" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D49" t="n">
-        <v>100.026284203699</v>
+        <v>107.082403546181</v>
       </c>
     </row>
     <row r="50">
@@ -2899,13 +2899,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>68.8875946528787</v>
+        <v>67.6869149579975</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="52">
@@ -2913,13 +2913,13 @@
         <v>147</v>
       </c>
       <c r="B52" t="n">
-        <v>433.676580668125</v>
+        <v>463.640256680912</v>
       </c>
       <c r="C52" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D52" t="n">
-        <v>91.2951622113014</v>
+        <v>97.6029472842694</v>
       </c>
     </row>
     <row r="53">
@@ -2941,13 +2941,13 @@
         <v>149</v>
       </c>
       <c r="B54" t="n">
-        <v>84.7610667732208</v>
+        <v>85.4660968640591</v>
       </c>
       <c r="C54" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D54" t="n">
-        <v>103.108889820915</v>
+        <v>103.966534406149</v>
       </c>
     </row>
     <row r="55">
@@ -2983,13 +2983,13 @@
         <v>152</v>
       </c>
       <c r="B57" t="n">
-        <v>100.431517065503</v>
+        <v>100.39499242341</v>
       </c>
       <c r="C57" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D57" t="n">
-        <v>98.8258123016139</v>
+        <v>98.789871617561</v>
       </c>
     </row>
     <row r="58">
@@ -3011,13 +3011,13 @@
         <v>154</v>
       </c>
       <c r="B59" t="n">
-        <v>18.0762459239864</v>
+        <v>19.2114822268247</v>
       </c>
       <c r="C59" t="n">
         <v>0.191526725190851</v>
       </c>
       <c r="D59" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="60">
@@ -3095,13 +3095,13 @@
         <v>160</v>
       </c>
       <c r="B65" t="n">
-        <v>201.781953442018</v>
+        <v>201.751538248108</v>
       </c>
       <c r="C65" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D65" t="n">
-        <v>100.991856805382</v>
+        <v>100.976634002472</v>
       </c>
     </row>
     <row r="66">
@@ -3277,13 +3277,13 @@
         <v>173</v>
       </c>
       <c r="B78" t="n">
-        <v>82.7271419375692</v>
+        <v>82.7192464957675</v>
       </c>
       <c r="C78" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D78" t="n">
-        <v>100.00997971627</v>
+        <v>100.000434808082</v>
       </c>
     </row>
   </sheetData>
@@ -3333,13 +3333,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>67.1610537515839</v>
+        <v>67.0879234862548</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>102.465486122961</v>
+        <v>102.353913600365</v>
       </c>
     </row>
     <row r="4">
@@ -3347,13 +3347,13 @@
         <v>177</v>
       </c>
       <c r="B4" t="n">
-        <v>177.663040416108</v>
+        <v>177.65551545646</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>100.502231873761</v>
+        <v>100.497975078213</v>
       </c>
     </row>
     <row r="5">
@@ -3361,13 +3361,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>481.706638310896</v>
+        <v>446.89195055995</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>110.764822257116</v>
+        <v>102.759446383135</v>
       </c>
     </row>
     <row r="6">
@@ -3487,13 +3487,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>362.740761213409</v>
+        <v>360.022612713733</v>
       </c>
       <c r="C14" t="n">
         <v>3.56459581811847</v>
       </c>
       <c r="D14" t="n">
-        <v>101.76210143367</v>
+        <v>100.999560983541</v>
       </c>
     </row>
     <row r="15">
@@ -3501,13 +3501,13 @@
         <v>188</v>
       </c>
       <c r="B15" t="n">
-        <v>288.28274208726</v>
+        <v>283.060679669145</v>
       </c>
       <c r="C15" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D15" t="n">
-        <v>100.328441993446</v>
+        <v>98.5110547207683</v>
       </c>
     </row>
     <row r="16">
@@ -3599,13 +3599,13 @@
         <v>195</v>
       </c>
       <c r="B22" t="n">
-        <v>79.6939354456945</v>
+        <v>87.5526733974136</v>
       </c>
       <c r="C22" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D22" t="n">
-        <v>92.2323858698031</v>
+        <v>101.327559136865</v>
       </c>
     </row>
     <row r="23">
@@ -3641,13 +3641,13 @@
         <v>198</v>
       </c>
       <c r="B25" t="n">
-        <v>363.539918932454</v>
+        <v>363.277471811975</v>
       </c>
       <c r="C25" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D25" t="n">
-        <v>97.714642363339</v>
+        <v>97.6441001059929</v>
       </c>
     </row>
     <row r="26">
@@ -3795,13 +3795,13 @@
         <v>209</v>
       </c>
       <c r="B36" t="n">
-        <v>198.382852026209</v>
+        <v>198.380154585885</v>
       </c>
       <c r="C36" t="n">
         <v>1.968740859074</v>
       </c>
       <c r="D36" t="n">
-        <v>100.766360951902</v>
+        <v>100.764990817122</v>
       </c>
     </row>
     <row r="37">
@@ -3809,13 +3809,13 @@
         <v>210</v>
       </c>
       <c r="B37" t="n">
-        <v>236.733409177065</v>
+        <v>237.578744325675</v>
       </c>
       <c r="C37" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.2819161529195</v>
+        <v>97.6292934974779</v>
       </c>
     </row>
     <row r="38">
@@ -3851,13 +3851,13 @@
         <v>213</v>
       </c>
       <c r="B40" t="n">
-        <v>238.076283369256</v>
+        <v>247.419925813413</v>
       </c>
       <c r="C40" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D40" t="n">
-        <v>96.1696000445606</v>
+        <v>99.9439128156496</v>
       </c>
     </row>
     <row r="41">
@@ -3865,13 +3865,13 @@
         <v>214</v>
       </c>
       <c r="B41" t="n">
-        <v>147.805777537268</v>
+        <v>148.62421324727</v>
       </c>
       <c r="C41" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D41" t="n">
-        <v>102.924581326753</v>
+        <v>103.494499189224</v>
       </c>
     </row>
     <row r="42">
@@ -3879,13 +3879,13 @@
         <v>215</v>
       </c>
       <c r="B42" t="n">
-        <v>322.852748905829</v>
+        <v>345.627637970872</v>
       </c>
       <c r="C42" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D42" t="n">
-        <v>100.026284203699</v>
+        <v>107.082403546181</v>
       </c>
     </row>
     <row r="43">
@@ -3907,13 +3907,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>68.8875946528787</v>
+        <v>67.6869149579975</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>94.8617426114933</v>
+        <v>93.208345236413</v>
       </c>
     </row>
     <row r="45">
@@ -3921,13 +3921,13 @@
         <v>218</v>
       </c>
       <c r="B45" t="n">
-        <v>433.676580668125</v>
+        <v>463.640256680912</v>
       </c>
       <c r="C45" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D45" t="n">
-        <v>91.2951622113014</v>
+        <v>97.6029472842694</v>
       </c>
     </row>
     <row r="46">
@@ -3949,13 +3949,13 @@
         <v>220</v>
       </c>
       <c r="B47" t="n">
-        <v>84.7610667732208</v>
+        <v>85.4660968640591</v>
       </c>
       <c r="C47" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D47" t="n">
-        <v>103.108889820915</v>
+        <v>103.966534406149</v>
       </c>
     </row>
     <row r="48">
@@ -3991,13 +3991,13 @@
         <v>223</v>
       </c>
       <c r="B50" t="n">
-        <v>100.431517065503</v>
+        <v>100.39499242341</v>
       </c>
       <c r="C50" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D50" t="n">
-        <v>98.8258123016139</v>
+        <v>98.789871617561</v>
       </c>
     </row>
     <row r="51">
@@ -4019,13 +4019,13 @@
         <v>225</v>
       </c>
       <c r="B52" t="n">
-        <v>18.0762459239864</v>
+        <v>19.2114822268247</v>
       </c>
       <c r="C52" t="n">
         <v>0.191526725190851</v>
       </c>
       <c r="D52" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="53">
@@ -4103,13 +4103,13 @@
         <v>231</v>
       </c>
       <c r="B58" t="n">
-        <v>201.781953442018</v>
+        <v>201.751538248108</v>
       </c>
       <c r="C58" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D58" t="n">
-        <v>100.991856805382</v>
+        <v>100.976634002472</v>
       </c>
     </row>
     <row r="59">
@@ -4285,13 +4285,13 @@
         <v>244</v>
       </c>
       <c r="B71" t="n">
-        <v>82.7271419375692</v>
+        <v>82.7192464957675</v>
       </c>
       <c r="C71" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D71" t="n">
-        <v>100.00997971627</v>
+        <v>100.000434808082</v>
       </c>
     </row>
   </sheetData>
@@ -4341,13 +4341,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>67.1610537515839</v>
+        <v>67.0879234862548</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>102.465486122961</v>
+        <v>102.353913600365</v>
       </c>
     </row>
     <row r="4">
@@ -4355,13 +4355,13 @@
         <v>248</v>
       </c>
       <c r="B4" t="n">
-        <v>177.663040416108</v>
+        <v>177.65551545646</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>100.502231873761</v>
+        <v>100.497975078213</v>
       </c>
     </row>
     <row r="5">
@@ -4369,13 +4369,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>481.706638310896</v>
+        <v>446.89195055995</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>110.764822257116</v>
+        <v>102.759446383135</v>
       </c>
     </row>
     <row r="6">
@@ -4411,13 +4411,13 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>1297.22531545486</v>
+        <v>1294.50716695518</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>101.168792878095</v>
+        <v>100.956808268097</v>
       </c>
     </row>
     <row r="9">
@@ -4425,13 +4425,13 @@
         <v>253</v>
       </c>
       <c r="B9" t="n">
-        <v>288.28274208726</v>
+        <v>283.060679669145</v>
       </c>
       <c r="C9" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D9" t="n">
-        <v>100.328441993446</v>
+        <v>98.5110547207683</v>
       </c>
     </row>
     <row r="10">
@@ -4467,13 +4467,13 @@
         <v>256</v>
       </c>
       <c r="B12" t="n">
-        <v>118.157792536873</v>
+        <v>126.016530488592</v>
       </c>
       <c r="C12" t="n">
         <v>1.24869445208775</v>
       </c>
       <c r="D12" t="n">
-        <v>94.6250640733763</v>
+        <v>100.918627673807</v>
       </c>
     </row>
     <row r="13">
@@ -4495,13 +4495,13 @@
         <v>258</v>
       </c>
       <c r="B14" t="n">
-        <v>363.539918932454</v>
+        <v>363.277471811975</v>
       </c>
       <c r="C14" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D14" t="n">
-        <v>97.714642363339</v>
+        <v>97.6441001059929</v>
       </c>
     </row>
     <row r="15">
@@ -4593,13 +4593,13 @@
         <v>265</v>
       </c>
       <c r="B21" t="n">
-        <v>435.116261203274</v>
+        <v>435.95889891156</v>
       </c>
       <c r="C21" t="n">
         <v>4.40221892507898</v>
       </c>
       <c r="D21" t="n">
-        <v>98.840214130302</v>
+        <v>99.0316261710539</v>
       </c>
     </row>
     <row r="22">
@@ -4607,13 +4607,13 @@
         <v>266</v>
       </c>
       <c r="B22" t="n">
-        <v>490.975349162972</v>
+        <v>501.137427317131</v>
       </c>
       <c r="C22" t="n">
         <v>4.98260867915758</v>
       </c>
       <c r="D22" t="n">
-        <v>98.5378103676371</v>
+        <v>100.577319951576</v>
       </c>
     </row>
     <row r="23">
@@ -4621,13 +4621,13 @@
         <v>267</v>
       </c>
       <c r="B23" t="n">
-        <v>322.852748905829</v>
+        <v>345.627637970872</v>
       </c>
       <c r="C23" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D23" t="n">
-        <v>100.026284203699</v>
+        <v>107.082403546181</v>
       </c>
     </row>
     <row r="24">
@@ -4635,13 +4635,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>84.4684190683364</v>
+        <v>83.2677393734552</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>96.0899798044125</v>
+        <v>94.7241049732598</v>
       </c>
     </row>
     <row r="25">
@@ -4649,13 +4649,13 @@
         <v>269</v>
       </c>
       <c r="B25" t="n">
-        <v>433.676580668125</v>
+        <v>463.640256680912</v>
       </c>
       <c r="C25" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D25" t="n">
-        <v>91.2951622113014</v>
+        <v>97.6029472842694</v>
       </c>
     </row>
     <row r="26">
@@ -4677,13 +4677,13 @@
         <v>271</v>
       </c>
       <c r="B27" t="n">
-        <v>431.913927361476</v>
+        <v>433.71766911306</v>
       </c>
       <c r="C27" t="n">
         <v>4.31627944598932</v>
       </c>
       <c r="D27" t="n">
-        <v>100.066256776495</v>
+        <v>100.484149495017</v>
       </c>
     </row>
     <row r="28">
@@ -4747,13 +4747,13 @@
         <v>276</v>
       </c>
       <c r="B32" t="n">
-        <v>201.781953442018</v>
+        <v>201.751538248108</v>
       </c>
       <c r="C32" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D32" t="n">
-        <v>100.991856805382</v>
+        <v>100.976634002472</v>
       </c>
     </row>
     <row r="33">
@@ -4915,13 +4915,13 @@
         <v>288</v>
       </c>
       <c r="B44" t="n">
-        <v>82.7271419375692</v>
+        <v>82.7192464957675</v>
       </c>
       <c r="C44" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D44" t="n">
-        <v>100.00997971627</v>
+        <v>100.000434808082</v>
       </c>
     </row>
   </sheetData>
@@ -4957,13 +4957,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3382.76310506994</v>
+        <v>3339.92755117623</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>101.163737732726</v>
+        <v>99.882712545581</v>
       </c>
     </row>
     <row r="3">
@@ -4999,13 +4999,13 @@
         <v>293</v>
       </c>
       <c r="B5" t="n">
-        <v>206.199580910503</v>
+        <v>214.058318862223</v>
       </c>
       <c r="C5" t="n">
         <v>2.12634831254182</v>
       </c>
       <c r="D5" t="n">
-        <v>96.9735671687832</v>
+        <v>100.669451754279</v>
       </c>
     </row>
     <row r="6">
@@ -5013,13 +5013,13 @@
         <v>294</v>
       </c>
       <c r="B6" t="n">
-        <v>363.539918932454</v>
+        <v>363.277471811975</v>
       </c>
       <c r="C6" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D6" t="n">
-        <v>97.714642363339</v>
+        <v>97.6441001059929</v>
       </c>
     </row>
     <row r="7">
@@ -5083,13 +5083,13 @@
         <v>299</v>
       </c>
       <c r="B11" t="n">
-        <v>926.091610366246</v>
+        <v>937.096326228692</v>
       </c>
       <c r="C11" t="n">
         <v>9.38482760423656</v>
       </c>
       <c r="D11" t="n">
-        <v>98.6796614088238</v>
+        <v>99.8522685494683</v>
       </c>
     </row>
     <row r="12">
@@ -5097,13 +5097,13 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>322.852748905829</v>
+        <v>345.627637970872</v>
       </c>
       <c r="C12" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D12" t="n">
-        <v>100.026284203699</v>
+        <v>107.082403546181</v>
       </c>
     </row>
     <row r="13">
@@ -5111,13 +5111,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>518.144999736462</v>
+        <v>546.907996054367</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>92.0439040012419</v>
+        <v>97.1533974311116</v>
       </c>
     </row>
     <row r="14">
@@ -5125,13 +5125,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="n">
-        <v>485.408840500194</v>
+        <v>487.212582251778</v>
       </c>
       <c r="C14" t="n">
         <v>4.82560808866417</v>
       </c>
       <c r="D14" t="n">
-        <v>100.590191242523</v>
+        <v>100.963976622198</v>
       </c>
     </row>
     <row r="15">
@@ -5153,13 +5153,13 @@
         <v>304</v>
       </c>
       <c r="B16" t="n">
-        <v>278.669950993921</v>
+        <v>278.639535800011</v>
       </c>
       <c r="C16" t="n">
         <v>2.80965645935818</v>
       </c>
       <c r="D16" t="n">
-        <v>99.1829268185972</v>
+        <v>99.1721015827188</v>
       </c>
     </row>
     <row r="17">
@@ -5223,13 +5223,13 @@
         <v>309</v>
       </c>
       <c r="B21" t="n">
-        <v>200.549987899661</v>
+        <v>200.542092457859</v>
       </c>
       <c r="C21" t="n">
         <v>1.99907507272891</v>
       </c>
       <c r="D21" t="n">
-        <v>100.321388944085</v>
+        <v>100.317439396662</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +5259,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>99.4711037881988</v>
+        <v>99.7759072938437</v>
       </c>
     </row>
   </sheetData>
@@ -5476,6 +5476,41 @@
         <v>351</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5497,51 +5532,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
         <v>361</v>
       </c>
     </row>

--- a/ind_MAYO.xlsx
+++ b/ind_MAYO.xlsx
@@ -1011,43 +1011,79 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C23991103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23991101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23991102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22201116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25991107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32901109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10501201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10613102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951103</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10711102</t>
   </si>
   <si>
     <t xml:space="preserve">C10711101</t>
   </si>
   <si>
-    <t xml:space="preserve">C23991103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23921204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23991101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23991102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22201116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25991107</t>
+    <t xml:space="preserve">C32501101</t>
   </si>
   <si>
     <t xml:space="preserve">C10201102</t>
@@ -1056,37 +1092,7 @@
     <t xml:space="preserve">C10201201</t>
   </si>
   <si>
-    <t xml:space="preserve">C10301402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32901109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10501201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10613102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951103</t>
+    <t xml:space="preserve">C10612101</t>
   </si>
   <si>
     <t xml:space="preserve">C13111101</t>
@@ -1096,12 +1102,6 @@
   </si>
   <si>
     <t xml:space="preserve">C25121101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32501101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10612101</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -1489,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>108.598559799132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>96.1647372718074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1553,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>99.2440317930441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1617,7 +1617,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1729,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1945,7 +1945,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2097,7 +2097,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2113,7 +2113,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2269,13 +2269,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>67.0879234862548</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>102.353913600365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2297,13 +2297,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>446.89195055995</v>
+        <v>356.857652102123</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>102.759446383135</v>
+        <v>82.0567359104404</v>
       </c>
     </row>
     <row r="9">
@@ -2381,13 +2381,13 @@
         <v>109</v>
       </c>
       <c r="B14" t="n">
-        <v>311.052837373495</v>
+        <v>72.1441571019111</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>99.9612000989107</v>
+        <v>23.184538629918</v>
       </c>
     </row>
     <row r="15">
@@ -2549,13 +2549,13 @@
         <v>121</v>
       </c>
       <c r="B26" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D26" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2899,13 +2899,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>67.6869149579975</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3137,13 +3137,13 @@
         <v>163</v>
       </c>
       <c r="B68" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3165,13 +3165,13 @@
         <v>165</v>
       </c>
       <c r="B70" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3333,13 +3333,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>67.0879234862548</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>102.353913600365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3361,13 +3361,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>446.89195055995</v>
+        <v>356.857652102123</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>102.759446383135</v>
+        <v>82.0567359104404</v>
       </c>
     </row>
     <row r="6">
@@ -3417,13 +3417,13 @@
         <v>182</v>
       </c>
       <c r="B9" t="n">
-        <v>548.767633814662</v>
+        <v>309.858953543078</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>101.138417529154</v>
+        <v>57.1073115240809</v>
       </c>
     </row>
     <row r="10">
@@ -3571,13 +3571,13 @@
         <v>193</v>
       </c>
       <c r="B20" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D20" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3907,13 +3907,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>67.6869149579975</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>93.208345236413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4145,13 +4145,13 @@
         <v>234</v>
       </c>
       <c r="B61" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4173,13 +4173,13 @@
         <v>236</v>
       </c>
       <c r="B63" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4341,13 +4341,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>67.0879234862548</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>102.353913600365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4369,13 +4369,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>446.89195055995</v>
+        <v>356.857652102123</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>102.759446383135</v>
+        <v>82.0567359104404</v>
       </c>
     </row>
     <row r="6">
@@ -4411,13 +4411,13 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>1294.50716695518</v>
+        <v>1055.5984866836</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>100.956808268097</v>
+        <v>82.3246535427636</v>
       </c>
     </row>
     <row r="9">
@@ -4453,13 +4453,13 @@
         <v>255</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D11" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4635,13 +4635,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>83.2677393734552</v>
+        <v>15.5808244154576</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>94.7241049732598</v>
+        <v>17.7245072173802</v>
       </c>
     </row>
     <row r="25">
@@ -4789,13 +4789,13 @@
         <v>279</v>
       </c>
       <c r="B35" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4817,13 +4817,13 @@
         <v>281</v>
       </c>
       <c r="B37" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4957,13 +4957,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3339.92755117623</v>
+        <v>2943.89664896056</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>99.882712545581</v>
+        <v>88.0391500254168</v>
       </c>
     </row>
     <row r="3">
@@ -4985,13 +4985,13 @@
         <v>292</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7653612715831</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D4" t="n">
-        <v>100.507243126187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5111,13 +5111,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>546.907996054367</v>
+        <v>479.221081096369</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>97.1533974311116</v>
+        <v>85.1294120492148</v>
       </c>
     </row>
     <row r="14">
@@ -5181,13 +5181,13 @@
         <v>306</v>
       </c>
       <c r="B18" t="n">
-        <v>114.498142256289</v>
+        <v>65.7727233866718</v>
       </c>
       <c r="C18" t="n">
         <v>1.16952660241937</v>
       </c>
       <c r="D18" t="n">
-        <v>97.9012722065744</v>
+        <v>56.2387578449345</v>
       </c>
     </row>
     <row r="19">
@@ -5195,13 +5195,13 @@
         <v>307</v>
       </c>
       <c r="B19" t="n">
-        <v>312.387205284529</v>
+        <v>249.942897076633</v>
       </c>
       <c r="C19" t="n">
         <v>3.11325050744984</v>
       </c>
       <c r="D19" t="n">
-        <v>100.341172204743</v>
+        <v>80.2835802896468</v>
       </c>
     </row>
     <row r="20">
@@ -5259,7 +5259,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>99.7759072938437</v>
+        <v>93.5511000142609</v>
       </c>
     </row>
   </sheetData>
@@ -5476,41 +5476,6 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>358</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5532,16 +5497,51 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>361</v>
       </c>
     </row>
